--- a/CFC/Docs/Menu功能表.xlsx
+++ b/CFC/Docs/Menu功能表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\CFC\CFC\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E3C8CD-DE79-4452-9F33-828EF546FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C36F75C-D824-4149-9B5B-B7BC399233E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="492">
   <si>
     <t>Controller</t>
   </si>
@@ -1939,6 +1939,18 @@
   </si>
   <si>
     <t>[Dou.Misc.Attr.MenuDef(Id = "GContent", Name = "圖文編輯", MenuPath = "計算", Action = "Index", Index = 3, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員統計數據</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCalController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "UserCal", Name = "會員統計數據", MenuPath = "管理", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2179,6 +2191,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2192,39 +2232,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2524,7 +2536,7 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
@@ -2534,7 +2546,7 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="10" t="s">
         <v>112</v>
       </c>
@@ -2544,7 +2556,7 @@
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="12" t="s">
         <v>101</v>
       </c>
@@ -2554,7 +2566,7 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="12" t="s">
         <v>102</v>
       </c>
@@ -2564,7 +2576,7 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
@@ -2574,7 +2586,7 @@
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="12" t="s">
         <v>104</v>
       </c>
@@ -2584,7 +2596,7 @@
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="12" t="s">
         <v>105</v>
       </c>
@@ -2594,7 +2606,7 @@
       <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="12" t="s">
         <v>106</v>
       </c>
@@ -2604,7 +2616,7 @@
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="12" t="s">
         <v>108</v>
       </c>
@@ -2614,7 +2626,7 @@
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="12" t="s">
         <v>109</v>
       </c>
@@ -2624,7 +2636,7 @@
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="12" t="s">
         <v>110</v>
       </c>
@@ -2634,17 +2646,17 @@
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="2" t="s">
         <v>100</v>
       </c>
@@ -2663,7 +2675,7 @@
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="29" t="s">
         <v>97</v>
       </c>
       <c r="B18" t="s">
@@ -2676,7 +2688,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="6" t="s">
         <v>136</v>
       </c>
@@ -2685,7 +2697,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="30"/>
       <c r="B20" t="s">
         <v>137</v>
       </c>
@@ -2694,7 +2706,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="30"/>
       <c r="B21" t="s">
         <v>148</v>
       </c>
@@ -2703,7 +2715,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="30"/>
       <c r="B22" t="s">
         <v>153</v>
       </c>
@@ -2712,7 +2724,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
@@ -2723,7 +2735,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="30"/>
       <c r="B24" t="s">
         <v>161</v>
       </c>
@@ -2732,7 +2744,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="30"/>
       <c r="B25" t="s">
         <v>162</v>
       </c>
@@ -2741,7 +2753,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="30"/>
       <c r="B26" t="s">
         <v>163</v>
       </c>
@@ -2750,7 +2762,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2761,7 +2773,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="32"/>
       <c r="B28" t="s">
         <v>199</v>
       </c>
@@ -2770,7 +2782,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="32"/>
       <c r="B29" t="s">
         <v>200</v>
       </c>
@@ -2779,7 +2791,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="32"/>
       <c r="B30" t="s">
         <v>201</v>
       </c>
@@ -2788,7 +2800,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -2799,7 +2811,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="25"/>
       <c r="B32" t="s">
         <v>236</v>
       </c>
@@ -2808,7 +2820,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="25"/>
       <c r="B33" t="s">
         <v>237</v>
       </c>
@@ -2817,7 +2829,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="25"/>
       <c r="B34" t="s">
         <v>238</v>
       </c>
@@ -2826,7 +2838,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
@@ -2837,7 +2849,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="25"/>
       <c r="B36" t="s">
         <v>263</v>
       </c>
@@ -2846,7 +2858,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="25"/>
       <c r="B37" t="s">
         <v>264</v>
       </c>
@@ -2855,7 +2867,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="25"/>
       <c r="B38" t="s">
         <v>265</v>
       </c>
@@ -2864,7 +2876,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="25"/>
       <c r="B39" t="s">
         <v>266</v>
       </c>
@@ -2873,7 +2885,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B40" t="s">
@@ -2884,7 +2896,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="25"/>
       <c r="B41" t="s">
         <v>288</v>
       </c>
@@ -2893,7 +2905,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="25"/>
       <c r="B42" t="s">
         <v>289</v>
       </c>
@@ -2902,7 +2914,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B43" t="s">
@@ -2913,7 +2925,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="25"/>
       <c r="B44" t="s">
         <v>338</v>
       </c>
@@ -2922,7 +2934,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="25"/>
       <c r="B45" t="s">
         <v>339</v>
       </c>
@@ -2931,7 +2943,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="25"/>
       <c r="B46" t="s">
         <v>377</v>
       </c>
@@ -2940,7 +2952,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="25"/>
       <c r="B47" t="s">
         <v>340</v>
       </c>
@@ -2949,7 +2961,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="25"/>
       <c r="B48" t="s">
         <v>341</v>
       </c>
@@ -2958,7 +2970,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B49" t="s">
@@ -2969,7 +2981,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="25"/>
       <c r="B50" t="s">
         <v>385</v>
       </c>
@@ -2978,7 +2990,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
+      <c r="A51" s="25"/>
       <c r="B51" t="s">
         <v>400</v>
       </c>
@@ -2987,7 +2999,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B52" t="s">
@@ -2998,7 +3010,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" t="s">
         <v>409</v>
       </c>
@@ -3007,7 +3019,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
       <c r="B54" t="s">
         <v>410</v>
       </c>
@@ -3016,7 +3028,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="25"/>
       <c r="B55" t="s">
         <v>411</v>
       </c>
@@ -3025,7 +3037,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" t="s">
         <v>412</v>
       </c>
@@ -3040,10 +3052,10 @@
       <c r="A58" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="25"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="11"/>
       <c r="D60" s="2"/>
       <c r="E60" t="s">
@@ -3068,10 +3080,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="31" t="s">
         <v>132</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3085,8 +3097,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="6" t="s">
         <v>99</v>
       </c>
@@ -3098,8 +3110,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="6" t="s">
         <v>8</v>
       </c>
@@ -3111,8 +3123,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="22" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="25" t="s">
         <v>168</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3126,8 +3138,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="6" t="s">
         <v>114</v>
       </c>
@@ -3139,8 +3151,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="6" t="s">
         <v>115</v>
       </c>
@@ -3152,8 +3164,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="6" t="s">
         <v>116</v>
       </c>
@@ -3165,8 +3177,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="6" t="s">
         <v>15</v>
       </c>
@@ -3178,8 +3190,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="6" t="s">
         <v>16</v>
       </c>
@@ -3191,8 +3203,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="6" t="s">
         <v>17</v>
       </c>
@@ -3204,8 +3216,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="6" t="s">
         <v>18</v>
       </c>
@@ -3217,8 +3229,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="6" t="s">
         <v>19</v>
       </c>
@@ -3230,8 +3242,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="6" t="s">
         <v>20</v>
       </c>
@@ -3243,8 +3255,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="22" t="s">
+      <c r="A75" s="27"/>
+      <c r="B75" s="25" t="s">
         <v>169</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -3258,8 +3270,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="6" t="s">
         <v>10</v>
       </c>
@@ -3271,8 +3283,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="6" t="s">
         <v>11</v>
       </c>
@@ -3284,8 +3296,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="6" t="s">
         <v>12</v>
       </c>
@@ -3297,7 +3309,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
+      <c r="A79" s="27"/>
       <c r="B79" s="15" t="s">
         <v>170</v>
       </c>
@@ -3312,10 +3324,10 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="25" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -3329,8 +3341,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="6" t="s">
         <v>14</v>
       </c>
@@ -3342,8 +3354,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="6" t="s">
         <v>8</v>
       </c>
@@ -3355,8 +3367,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
-      <c r="B83" s="22" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -3370,8 +3382,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="6" t="s">
         <v>114</v>
       </c>
@@ -3383,8 +3395,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="6" t="s">
         <v>115</v>
       </c>
@@ -3396,8 +3408,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="6" t="s">
         <v>116</v>
       </c>
@@ -3409,8 +3421,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="26"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="6" t="s">
         <v>21</v>
       </c>
@@ -3422,8 +3434,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="26"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="6" t="s">
         <v>22</v>
       </c>
@@ -3435,8 +3447,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="26"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="6" t="s">
         <v>23</v>
       </c>
@@ -3448,8 +3460,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="6" t="s">
         <v>17</v>
       </c>
@@ -3461,8 +3473,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="26"/>
-      <c r="B91" s="22"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="6" t="s">
         <v>24</v>
       </c>
@@ -3474,7 +3486,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="26"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="15" t="s">
         <v>163</v>
       </c>
@@ -3489,10 +3501,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="26" t="s">
         <v>230</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -3506,8 +3518,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="26"/>
-      <c r="B94" s="29"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="6" t="s">
         <v>33</v>
       </c>
@@ -3519,8 +3531,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="26"/>
-      <c r="B95" s="29"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="6" t="s">
         <v>8</v>
       </c>
@@ -3532,8 +3544,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="26"/>
-      <c r="B96" s="29" t="s">
+      <c r="A96" s="18"/>
+      <c r="B96" s="17" t="s">
         <v>200</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -3547,8 +3559,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="26"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="6" t="s">
         <v>114</v>
       </c>
@@ -3560,8 +3572,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="26"/>
-      <c r="B98" s="29"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="6" t="s">
         <v>115</v>
       </c>
@@ -3573,8 +3585,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="26"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="6" t="s">
         <v>116</v>
       </c>
@@ -3586,8 +3598,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="26"/>
-      <c r="B100" s="29"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="6" t="s">
         <v>34</v>
       </c>
@@ -3599,8 +3611,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="26"/>
-      <c r="B101" s="29"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="6" t="s">
         <v>35</v>
       </c>
@@ -3612,8 +3624,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="26"/>
-      <c r="B102" s="29"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="6" t="s">
         <v>36</v>
       </c>
@@ -3625,8 +3637,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="26"/>
-      <c r="B103" s="29"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="6" t="s">
         <v>17</v>
       </c>
@@ -3638,8 +3650,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="26"/>
-      <c r="B104" s="29"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="6" t="s">
         <v>37</v>
       </c>
@@ -3651,7 +3663,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="26"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="8" t="s">
         <v>201</v>
       </c>
@@ -3666,10 +3678,10 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="17" t="s">
         <v>235</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -3683,8 +3695,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="26"/>
-      <c r="B107" s="29"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="6" t="s">
         <v>41</v>
       </c>
@@ -3696,8 +3708,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="26"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="6" t="s">
         <v>8</v>
       </c>
@@ -3709,7 +3721,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="26"/>
+      <c r="A109" s="18"/>
       <c r="B109" s="8" t="s">
         <v>236</v>
       </c>
@@ -3724,8 +3736,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="26"/>
-      <c r="B110" s="29" t="s">
+      <c r="A110" s="18"/>
+      <c r="B110" s="17" t="s">
         <v>237</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -3739,8 +3751,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="26"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="6" t="s">
         <v>40</v>
       </c>
@@ -3752,8 +3764,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="26"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="6" t="s">
         <v>42</v>
       </c>
@@ -3765,7 +3777,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="26"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="8" t="s">
         <v>238</v>
       </c>
@@ -3780,7 +3792,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="18" t="s">
         <v>272</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -3797,7 +3809,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="26"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="8" t="s">
         <v>263</v>
       </c>
@@ -3812,7 +3824,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="26"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="8" t="s">
         <v>264</v>
       </c>
@@ -3827,8 +3839,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="26"/>
-      <c r="B117" s="29" t="s">
+      <c r="A117" s="18"/>
+      <c r="B117" s="17" t="s">
         <v>265</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -3842,8 +3854,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="26"/>
-      <c r="B118" s="29"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="6" t="s">
         <v>46</v>
       </c>
@@ -3855,7 +3867,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="26"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="8" t="s">
         <v>266</v>
       </c>
@@ -3870,7 +3882,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="18" t="s">
         <v>293</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -3887,8 +3899,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="26"/>
-      <c r="B121" s="27" t="s">
+      <c r="A121" s="18"/>
+      <c r="B121" s="22" t="s">
         <v>288</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -3902,8 +3914,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="26"/>
-      <c r="B122" s="28"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="6" t="s">
         <v>49</v>
       </c>
@@ -3915,7 +3927,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="26"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="8" t="s">
         <v>289</v>
       </c>
@@ -3930,10 +3942,10 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="17" t="s">
         <v>371</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -3947,8 +3959,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="26"/>
-      <c r="B125" s="29"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="6" t="s">
         <v>52</v>
       </c>
@@ -3960,8 +3972,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="26"/>
-      <c r="B126" s="29"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="6" t="s">
         <v>53</v>
       </c>
@@ -3973,8 +3985,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="26"/>
-      <c r="B127" s="29"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="6" t="s">
         <v>54</v>
       </c>
@@ -3986,8 +3998,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="26"/>
-      <c r="B128" s="29" t="s">
+      <c r="A128" s="18"/>
+      <c r="B128" s="17" t="s">
         <v>338</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -4001,8 +4013,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="26"/>
-      <c r="B129" s="29"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="6" t="s">
         <v>55</v>
       </c>
@@ -4014,8 +4026,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="26"/>
-      <c r="B130" s="29" t="s">
+      <c r="A130" s="18"/>
+      <c r="B130" s="17" t="s">
         <v>339</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -4029,8 +4041,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="26"/>
-      <c r="B131" s="29"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="6" t="s">
         <v>57</v>
       </c>
@@ -4042,8 +4054,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="26"/>
-      <c r="B132" s="29"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="6" t="s">
         <v>58</v>
       </c>
@@ -4055,8 +4067,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="26"/>
-      <c r="B133" s="29"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="6" t="s">
         <v>59</v>
       </c>
@@ -4068,8 +4080,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="26"/>
-      <c r="B134" s="29"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="6" t="s">
         <v>60</v>
       </c>
@@ -4081,8 +4093,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="26"/>
-      <c r="B135" s="29"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="6" t="s">
         <v>61</v>
       </c>
@@ -4094,8 +4106,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="26"/>
-      <c r="B136" s="29"/>
+      <c r="A136" s="18"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="6" t="s">
         <v>62</v>
       </c>
@@ -4107,8 +4119,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="26"/>
-      <c r="B137" s="29"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="6" t="s">
         <v>63</v>
       </c>
@@ -4120,8 +4132,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="26"/>
-      <c r="B138" s="29" t="s">
+      <c r="A138" s="18"/>
+      <c r="B138" s="17" t="s">
         <v>377</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -4135,8 +4147,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="26"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="6" t="s">
         <v>65</v>
       </c>
@@ -4148,8 +4160,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="26"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="6" t="s">
         <v>66</v>
       </c>
@@ -4161,8 +4173,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="26"/>
-      <c r="B141" s="29"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="6" t="s">
         <v>67</v>
       </c>
@@ -4174,8 +4186,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="26"/>
-      <c r="B142" s="29"/>
+      <c r="A142" s="18"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="6" t="s">
         <v>68</v>
       </c>
@@ -4187,8 +4199,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="26"/>
-      <c r="B143" s="29"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="17"/>
       <c r="C143" s="6" t="s">
         <v>69</v>
       </c>
@@ -4200,8 +4212,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="26"/>
-      <c r="B144" s="29" t="s">
+      <c r="A144" s="18"/>
+      <c r="B144" s="17" t="s">
         <v>340</v>
       </c>
       <c r="C144" s="6" t="s">
@@ -4215,8 +4227,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="26"/>
-      <c r="B145" s="29"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="6" t="s">
         <v>71</v>
       </c>
@@ -4228,8 +4240,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="26"/>
-      <c r="B146" s="29"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="17"/>
       <c r="C146" s="6" t="s">
         <v>72</v>
       </c>
@@ -4241,8 +4253,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="26"/>
-      <c r="B147" s="29"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="17"/>
       <c r="C147" s="6" t="s">
         <v>73</v>
       </c>
@@ -4254,8 +4266,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="26"/>
-      <c r="B148" s="29"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="17"/>
       <c r="C148" s="6" t="s">
         <v>74</v>
       </c>
@@ -4267,8 +4279,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="26"/>
-      <c r="B149" s="29"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="6" t="s">
         <v>75</v>
       </c>
@@ -4280,8 +4292,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="26"/>
-      <c r="B150" s="29"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="6" t="s">
         <v>76</v>
       </c>
@@ -4293,8 +4305,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="26"/>
-      <c r="B151" s="29"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="17"/>
       <c r="C151" s="6" t="s">
         <v>77</v>
       </c>
@@ -4306,8 +4318,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="26"/>
-      <c r="B152" s="29"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="17"/>
       <c r="C152" s="6" t="s">
         <v>78</v>
       </c>
@@ -4319,8 +4331,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="26"/>
-      <c r="B153" s="29"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="17"/>
       <c r="C153" s="6" t="s">
         <v>79</v>
       </c>
@@ -4332,8 +4344,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="26"/>
-      <c r="B154" s="29"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="17"/>
       <c r="C154" s="6" t="s">
         <v>80</v>
       </c>
@@ -4345,8 +4357,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="26"/>
-      <c r="B155" s="29"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="17"/>
       <c r="C155" s="6" t="s">
         <v>81</v>
       </c>
@@ -4358,8 +4370,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="26"/>
-      <c r="B156" s="29"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="17"/>
       <c r="C156" s="6" t="s">
         <v>82</v>
       </c>
@@ -4371,8 +4383,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="26"/>
-      <c r="B157" s="29"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="17"/>
       <c r="C157" s="6" t="s">
         <v>83</v>
       </c>
@@ -4384,7 +4396,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="26"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="8" t="s">
         <v>341</v>
       </c>
@@ -4399,10 +4411,10 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="26" t="s">
+      <c r="A159" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="22" t="s">
         <v>393</v>
       </c>
       <c r="C159" s="6" t="s">
@@ -4416,8 +4428,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="26"/>
-      <c r="B160" s="34"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="6" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4441,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="26"/>
-      <c r="B161" s="33"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="6" t="s">
         <v>433</v>
       </c>
@@ -4442,55 +4454,55 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="26"/>
-      <c r="B162" s="29" t="s">
+      <c r="A162" s="18"/>
+      <c r="B162" s="17" t="s">
         <v>385</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D162" s="32" t="s">
+      <c r="D162" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="E162" s="31" t="s">
+      <c r="E162" s="19" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="26"/>
-      <c r="B163" s="29"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="17"/>
       <c r="C163" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D163" s="33"/>
-      <c r="E163" s="31"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="19"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="26"/>
-      <c r="B164" s="29" t="s">
+      <c r="A164" s="18"/>
+      <c r="B164" s="17" t="s">
         <v>398</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D164" s="32" t="s">
+      <c r="D164" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="E164" s="31" t="s">
+      <c r="E164" s="19" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="26"/>
-      <c r="B165" s="29"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="17"/>
       <c r="C165" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D165" s="33"/>
-      <c r="E165" s="31"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="19"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="26" t="s">
+      <c r="A166" s="18" t="s">
         <v>418</v>
       </c>
       <c r="B166" s="8" t="s">
@@ -4507,7 +4519,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="26"/>
+      <c r="A167" s="18"/>
       <c r="B167" s="8" t="s">
         <v>409</v>
       </c>
@@ -4522,8 +4534,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="26"/>
-      <c r="B168" s="29" t="s">
+      <c r="A168" s="18"/>
+      <c r="B168" s="17" t="s">
         <v>410</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -4537,8 +4549,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="26"/>
-      <c r="B169" s="29"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="17"/>
       <c r="C169" s="6" t="s">
         <v>404</v>
       </c>
@@ -4550,8 +4562,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="26"/>
-      <c r="B170" s="29" t="s">
+      <c r="A170" s="18"/>
+      <c r="B170" s="17" t="s">
         <v>411</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -4565,8 +4577,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="26"/>
-      <c r="B171" s="29"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="17"/>
       <c r="C171" s="6" t="s">
         <v>406</v>
       </c>
@@ -4578,7 +4590,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="26"/>
+      <c r="A172" s="18"/>
       <c r="B172" s="8" t="s">
         <v>412</v>
       </c>
@@ -4594,36 +4606,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A166:A172"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="A124:A158"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B137"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="B144:B157"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="A80:A92"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A93:A105"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="A62:A79"/>
     <mergeCell ref="A18:A22"/>
@@ -4640,6 +4622,36 @@
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A93:A105"/>
+    <mergeCell ref="A124:A158"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B137"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="B144:B157"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A166:A172"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="B159:B161"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4877,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26854B3-5C63-4C3F-8A2D-1F270D4E974D}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5003,16 +5015,27 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>477</v>
+        <v>489</v>
+      </c>
+      <c r="B19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C19" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>479</v>
       </c>
     </row>

--- a/CFC/Docs/Menu功能表.xlsx
+++ b/CFC/Docs/Menu功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\CFC\CFC\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C36F75C-D824-4149-9B5B-B7BC399233E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5DD078-ED6D-4D50-B249-DC3C5030ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="495">
   <si>
     <t>Controller</t>
   </si>
@@ -1951,6 +1951,18 @@
   </si>
   <si>
     <t>[Dou.Misc.Attr.MenuDef(Id = "UserCal", Name = "會員統計數據", MenuPath = "管理", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員計算紀錄明細</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInputCalController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "UserInputCal", Name = "會員計算紀錄明細", MenuPath = "管理", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4889,10 +4901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26854B3-5C63-4C3F-8A2D-1F270D4E974D}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5026,16 +5038,27 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>477</v>
+        <v>492</v>
+      </c>
+      <c r="B20" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>479</v>
       </c>
     </row>
